--- a/Vortrag und Protokoll/Alans entropies.xlsx
+++ b/Vortrag und Protokoll/Alans entropies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Documents\GitHub\Labrotation\Excel Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rickman\Documents\GitHub\Labrotation\Vortrag und Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF6D15-7E6F-4D15-B5E5-5026F1CBE51A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B0995F-35B0-4E90-A87C-2995CA8F9998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="80">
   <si>
     <t>res num</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>0.67</t>
+  </si>
+  <si>
+    <t>Residue</t>
+  </si>
+  <si>
+    <t>Entropy</t>
   </si>
 </sst>
 </file>
@@ -812,6 +818,94 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>COMPARISON OF CALCULATED ENTROPIES</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(biologically relevant sequences)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -824,13 +918,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -849,22 +957,14 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>entropie!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>entropy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>entropy.exe</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -872,14 +972,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2237,6 +2337,1391 @@
         <c:axId val="420483392"/>
         <c:axId val="420505024"/>
       </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Biotite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>entropie!$G$2:$G$442</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="441"/>
+                <c:pt idx="0">
+                  <c:v>1.12194001828072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6335236649742599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.74002650894976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7917732149642398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.87174275407143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4552870802048701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.37461341991777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1162374894351501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7260569685778302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4294061597858301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3117554678947401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1663631185824501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1080590930054202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3066600507570998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0739539260802302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.15312287717575</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7357364365371599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7824265177521701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2470074930395598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8139202983427201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2766419914049698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7203999610774801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0569904273609301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0273580199251899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2151321124675198</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6713059582981802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8833212977920999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3202101500535699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7027763913353899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2747875362292498</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1039600031963501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.2370262100108298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3204026839986098</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1411799174812201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0413595393052399</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9483409597147001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.77651972580228</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8432547459689601</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0137895718656398</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.19836437519829</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1098242792365598</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9487769085600699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.18562421858149</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3733482693171402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0880172555899099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0003861551715598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.77677577743858</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0856765389615401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8190765578375201</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9016094970590198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.0770480183934201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.9231046061706598</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1096467057317398</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2318248621974099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.93250423552195905</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0539938089375001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5391275786582899</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.3003027662606401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.76299803971663</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4524781074695501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1748823918788598</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6131372642211299</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5058388596433101</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0187385061089902</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.02155426605009</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1871814313304099</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.05421430644949</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9248380040345601</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4086903287029999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.2588991332832</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.02413728564194</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1214586636685202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1285503526764198</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.03103374782145</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3763528348884899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1894573569869502</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2862124824985901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.12805849743724201</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.0733484776899697E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.32808522723837102</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0445930994214798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.30621368906873098</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.59457888916823</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6554606969028101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6231055377622701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6195681059598201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.13462758133081</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.32615004969251399</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.8647596950805201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.56567354977199802</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.9599828840048499</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.44392344005246098</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8938510422317301</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4114261879588199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.3693792852249298</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3859557274204399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.0479778832018098</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.190679613894608</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.0899153804208401</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8846052811074301</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.71669999257881</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0623530096695801</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7660341914797399</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.9371739018802201</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.78630377876912905</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.92979901019008904</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.9594910508844898</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.7519952129881502</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.7450378746775201</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.9126312963140002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.0483025247065001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.8990397171789999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.27381030240559</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.71686312248552</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.86434354387503798</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.82150591043114</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.31066827212458498</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.5560535509808902</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99524284204013402</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.96925523829916405</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.12916520078938</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.08099758619572</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.99131768645734397</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7919790647302201</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.75134362165423696</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1715420976319502</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.14446809998903</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.0341688890493499</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.92444989193692</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.7988160760796998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.0519509403759399</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.14027180181137</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.3854003371009398</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.0645100797597702</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.4082121737109801</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0347553590277299</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5068670554916901</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.6606371241361</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.7301723936208699</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.0302695783489599</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0803827778894699</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.0188415546489602</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.79145692892751</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.8485813297971898</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.8837776875471799</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.49534320329527</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.92731332774283</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.39517135195680603</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.73331308545593</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.2006037791572</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.57226806961773</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.45909448925526</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.22568985152627</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.4053589602532801</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.3045049384915499</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.8871113286789698</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.64041974814276</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.108827076372796</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.30801905006867702</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.8495255916689901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.6705512367420701</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.6483703622011099</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.1173960450534999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.6201788868223699</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.4911237472661001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.4917971105353698</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.4193355984544298</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.35140148299593</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.20498720786544</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.7176753652008301</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.3548908862872402</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.3068483206805102</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.4381561972993699</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.41290482611827</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.0792923978207298</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.0251438926096101</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.4147964372049602</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.8469755616518</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.8680703513418799</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.57525656753795</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.8737677124027599</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.44662489703799</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.5483275814523401</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.247329443286</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.2908702794015499</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.9764867535205599</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.3066130545486101</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.8366502663367501</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.6584441565058701</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.71567797336096</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.1079874809223398</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.5850434319386499</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.6173551820964098</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.3589662090749002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.67536342767207702</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.9113120381789499</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.9031716285520399</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.3024648257626898</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.72085204759696</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.3700233229224899</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.2972334635047802</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.4583378423580302</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2.2584125386526601</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2.58690206823597</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.2308970875563801</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.2863283069217699</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.0184007321276201</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2.1867153088918099</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.9924505351442701</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.5406070529059899</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.06059622815513</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.6488251360836099</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.4576183525330699</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.8700104447964598</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.1657346128674302</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2.1715141101558002</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.929025957090166</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.4976481548964999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.15503352125417</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2.2197664288166701</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.1354049935552402</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.3780584961350102</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.21874552625354</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.19435020748592</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.7846124881900298</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.73844389311961</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2.6402860069801601</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2.3613363327453101</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.197674536721307</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2.6629660754766298</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.2603548201658099</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.0515642101349301</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.2863335000217302</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.6757536657250802</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.3763762372762001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.955475119285776</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2.2984908696148798</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.59171981976891</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2.61581841511155</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2.2705049440168299</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.83168312045392101</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.60245262341759</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.3774612246936599</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.1446901484267902</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.17536447182923</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.96482846351812002</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.30677863724656</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.8859019045859098</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.8961735895677101</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.3937674264992701</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.84687835077747</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.1961441612214401</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.7939650542038099</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.98045857639525</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.2244922372396001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2.01409847243526</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3.5561772059198802</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2.45320242137017</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3.14873103958652</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2.9131030779055598</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.22089900091005</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.9800004258261601</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2.48109658043788</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3.4736362090961599</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1.94846099613186</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3.2791541735098302</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.61921049192016</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2.0116670624444999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.8378732584827899</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.3878550217361501</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.2188097837298901</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.5562875737973301</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.0229517598572802</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.0719560901226299</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.5013714437738099</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.7854116983381001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.1139038731672302</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.6204340663501</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.85223056855396</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.9247193556411402</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.40115648440031798</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.2134624333264399</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.8996677733556102E-2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.5129075235050702</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2.5774020551262899</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.1788905486806101</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.0355846656815002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.4957089231724497E-2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1.4587854771801301</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.4096030157499002</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.53195350381485</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.6705940177747201</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.2582508698785202</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.3423322893504799</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.5176982725101702</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.1410126180612901</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.7945699030993598</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.2634780959013501</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.5039224919947101</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.93504826279170306</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.4807369065106202</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2.6884015850162002</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.4289338819149799</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2.30651616760239</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.27939186211525702</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.8486387828329101</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.121551215394732</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2.07984095556909</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.0797800411684202</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2.53769243129689</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2.8703775506288398</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.93116904919090304</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.6972332492724602</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2.3029577872961902</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.9699636960106002</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2.4011695436708398</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.45663752577859</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2.7344230635617599</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3.3716101476208098</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.3867281353365899</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2.4441553592712402</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>3.6316506996117002</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1.84113466522415</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.4799892592944</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2.81648502554201</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.82333445724179</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2.3774222940008598</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2.2734680083207901</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.58364149895314199</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>3.1997581910700501</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>2.4052478872982199</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2.1581415915322402</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1.03322976635254</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>3.3775539885468202</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1.37647498109209</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2.2280426253609198</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2.2564426929254999</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2.92144855836198</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.91843429523026</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.70612672225119</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3.1825890837704902</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2.6059655816883001</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.10296717170422</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3.1190126435456902</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2.3199323793484798</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.78298379343567</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.3800576203416699</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.1362548113801201</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2.3212824912998098</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.92183972457207</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.04195429782539</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.1250385608351201</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.60586556729243</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2.234668840681</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.05214528836747</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.60461219445842</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.58821279834058204</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2.52915343597489</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.0666742949858801</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2.99577224327609</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2.36209079900194</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2.0478855905323599</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.85988153889706398</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.65524317389475</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.1979528562710899</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.5012331971355899</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.5879005764274301</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.37727811079305301</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.143513206690916</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.86286746208238</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.22597232604416</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3.3926847413129102</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.4150457621561701</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3.8681462830333202</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.7810634737420199</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.4487801970335701</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.0942531636403099</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>2.61500995362975</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>2.398421917826</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.27407418529239702</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.9335600519149001</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2.2469114351357198</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.1971681478021201</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2.26354272442632</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>2.54799738097873</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2.8263382326720499</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.92959398940999105</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2.1338298988393301</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.22128206775529999</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2.8453152953537302</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.7308127135656399</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.23423136067577199</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2.39604428871584</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2.78865912819583</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.93062212909700104</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2.6251555001483</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2.9508989185257199</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3.18311349337344</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2.6828702886199798</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.67757589315504296</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2.2111164361224498</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.14733520560205</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>3.2386378353217098</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.75927470491051796</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2.2419310220506201</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2.77972337311961</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>3.0370464626240499</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.26979771970953798</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2.0071747960626101</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2.3747255383703401</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.65054848275694599</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.7166552071494701</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2.4938781327855102</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.51599538370699805</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>3.1532116037239502</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.72726444296244</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.0396619055541101</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2.4228447030559801</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2.4409591248446798</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.19280353808405301</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2.2898454137723898</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2.6902361452861401</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>3.1400636251630498</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.1095826229410699</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2.0563794275868399</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2.6071861223364201</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>3.0741534464490301</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2.6120236587499499</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.33341284926572601</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>3.1498321020729598</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>3.3570378707878401</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>2.8815419363532602</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2.1288788513693002</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>3.3293455033123101</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>3.28278155837469</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2.12781140686505</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2.98341708451261</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>3.5109622738041302</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3.8249433916005802</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.44497735493297402</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.87326169108325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E579-42D4-840A-F2F288F667E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1543263040"/>
+        <c:axId val="1543266368"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="420483392"/>
         <c:scaling>
@@ -2244,6 +3729,72 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>RESIDUES</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4860040713827054"/>
+              <c:y val="0.90617061271242227"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2291,6 +3842,7 @@
         <c:axId val="420505024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2308,6 +3860,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ENTROPY (entropy.exe)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.4190742828417425E-3"/>
+              <c:y val="0.38135993701807469"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2343,6 +3961,162 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1543266368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ENTROPY (Biotite)</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.974456633304569"/>
+              <c:y val="0.3868839257918657"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543263040"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1543263040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1543266368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2973,16 +4747,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3307,15 +5081,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C442"/>
+  <dimension ref="A1:G442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3325,8 +5099,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3336,8 +5116,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.12194001828072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3347,8 +5133,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3.6335236649742599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3358,8 +5150,14 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3.74002650894976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3369,8 +5167,14 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3.7917732149642398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3380,8 +5184,14 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3.87174275407143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3391,8 +5201,14 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>3.4552870802048701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3402,8 +5218,14 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>3.37461341991777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3413,8 +5235,14 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>2.1162374894351501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3424,8 +5252,14 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>3.7260569685778302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3435,8 +5269,14 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>3.4294061597858301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3446,8 +5286,14 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>3.3117554678947401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3457,8 +5303,14 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>3.1663631185824501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3468,8 +5320,14 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>3.1080590930054202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3479,8 +5337,14 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>3.3066600507570998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3490,8 +5354,14 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>3.0739539260802302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3501,8 +5371,14 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>3.15312287717575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3512,8 +5388,14 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>2.7357364365371599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3523,8 +5405,14 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>2.7824265177521701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3534,8 +5422,14 @@
       <c r="C20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>3.2470074930395598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3545,8 +5439,14 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>1.8139202983427201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3556,8 +5456,14 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>2.2766419914049698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3567,8 +5473,14 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>1.7203999610774801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3578,8 +5490,14 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>2.0569904273609301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3589,8 +5507,14 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>2.0273580199251899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3600,8 +5524,14 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>3.2151321124675198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3611,8 +5541,14 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>3.6713059582981802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3622,8 +5558,14 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>2.8833212977920999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3633,8 +5575,14 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>3.3202101500535699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3644,8 +5592,14 @@
       <c r="C30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>3.7027763913353899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3655,8 +5609,14 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>3.2747875362292498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3666,8 +5626,14 @@
       <c r="C32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>3.1039600031963501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3677,8 +5643,14 @@
       <c r="C33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>3.2370262100108298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3688,8 +5660,14 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>2.3204026839986098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3699,8 +5677,14 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>2.1411799174812201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3710,8 +5694,14 @@
       <c r="C36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>2.0413595393052399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3721,8 +5711,14 @@
       <c r="C37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>2.9483409597147001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3732,8 +5728,14 @@
       <c r="C38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>1.77651972580228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3743,8 +5745,14 @@
       <c r="C39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>1.8432547459689601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3754,8 +5762,14 @@
       <c r="C40" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <v>2.0137895718656398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3765,8 +5779,14 @@
       <c r="C41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>2.19836437519829</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3776,8 +5796,14 @@
       <c r="C42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <v>2.1098242792365598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3787,8 +5813,14 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>2.9487769085600699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3798,8 +5830,14 @@
       <c r="C44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>3.18562421858149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3809,8 +5847,14 @@
       <c r="C45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>3.3733482693171402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3820,8 +5864,14 @@
       <c r="C46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>3.0880172555899099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3831,8 +5881,14 @@
       <c r="C47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>3.0003861551715598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3842,8 +5898,14 @@
       <c r="C48" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>3.77677577743858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3853,8 +5915,14 @@
       <c r="C49" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>2.0856765389615401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3864,8 +5932,14 @@
       <c r="C50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <v>2.8190765578375201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3875,8 +5949,14 @@
       <c r="C51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>2.9016094970590198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3886,8 +5966,14 @@
       <c r="C52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <v>3.0770480183934201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3897,8 +5983,14 @@
       <c r="C53" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53">
+        <v>2.9231046061706598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3908,8 +6000,14 @@
       <c r="C54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <v>3.1096467057317398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3919,8 +6017,14 @@
       <c r="C55" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <v>2.2318248621974099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3930,8 +6034,14 @@
       <c r="C56" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>0.93250423552195905</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3941,8 +6051,14 @@
       <c r="C57" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>1.0539938089375001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3952,8 +6068,14 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58">
+        <v>2.5391275786582899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3963,8 +6085,14 @@
       <c r="C59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <v>2.3003027662606401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3974,8 +6102,14 @@
       <c r="C60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>2.76299803971663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3985,8 +6119,14 @@
       <c r="C61" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <v>1.4524781074695501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3996,8 +6136,14 @@
       <c r="C62" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <v>3.1748823918788598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4007,8 +6153,14 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <v>3.6131372642211299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4018,8 +6170,14 @@
       <c r="C64" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <v>2.5058388596433101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4029,8 +6187,14 @@
       <c r="C65" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <v>2.0187385061089902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4040,8 +6204,14 @@
       <c r="C66" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <v>3.02155426605009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4051,8 +6221,14 @@
       <c r="C67" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>3.1871814313304099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4062,8 +6238,14 @@
       <c r="C68" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>67</v>
+      </c>
+      <c r="G68">
+        <v>1.05421430644949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4073,8 +6255,14 @@
       <c r="C69" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>1.9248380040345601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4084,8 +6272,14 @@
       <c r="C70" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <v>3.4086903287029999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4095,8 +6289,14 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>3.2588991332832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4106,8 +6306,14 @@
       <c r="C72" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <v>1.02413728564194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4117,8 +6323,14 @@
       <c r="C73" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <v>2.1214586636685202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4128,8 +6340,14 @@
       <c r="C74" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>73</v>
+      </c>
+      <c r="G74">
+        <v>3.1285503526764198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4139,8 +6357,14 @@
       <c r="C75" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <v>1.03103374782145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4150,8 +6374,14 @@
       <c r="C76" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <v>1.3763528348884899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4161,8 +6391,14 @@
       <c r="C77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <v>2.1894573569869502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4172,8 +6408,14 @@
       <c r="C78" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <v>1.2862124824985901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4183,8 +6425,14 @@
       <c r="C79" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>0.12805849743724201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4194,8 +6442,14 @@
       <c r="C80" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <v>7.0733484776899697E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4205,8 +6459,14 @@
       <c r="C81" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <v>0.32808522723837102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4216,8 +6476,14 @@
       <c r="C82" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <v>2.0445930994214798</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4227,8 +6493,14 @@
       <c r="C83" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <v>0.30621368906873098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4238,8 +6510,14 @@
       <c r="C84" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>1.59457888916823</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4249,8 +6527,14 @@
       <c r="C85" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <v>1.6554606969028101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4260,8 +6544,14 @@
       <c r="C86" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <v>1.6231055377622701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4271,8 +6561,14 @@
       <c r="C87" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>86</v>
+      </c>
+      <c r="G87">
+        <v>2.6195681059598201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4282,8 +6578,14 @@
       <c r="C88" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <v>1.13462758133081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4293,8 +6595,14 @@
       <c r="C89" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <v>0.32615004969251399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4304,8 +6612,14 @@
       <c r="C90" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <v>2.8647596950805201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4315,8 +6629,14 @@
       <c r="C91" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <v>0.56567354977199802</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4326,8 +6646,14 @@
       <c r="C92" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <v>2.9599828840048499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4337,8 +6663,14 @@
       <c r="C93" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <v>0.44392344005246098</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4348,8 +6680,14 @@
       <c r="C94" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <v>1.8938510422317301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4359,8 +6697,14 @@
       <c r="C95" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <v>1.4114261879588199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4370,8 +6714,14 @@
       <c r="C96" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <v>2.3693792852249298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4381,8 +6731,14 @@
       <c r="C97" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <v>1.3859557274204399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4392,8 +6748,14 @@
       <c r="C98" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>97</v>
+      </c>
+      <c r="G98">
+        <v>3.0479778832018098</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4403,8 +6765,14 @@
       <c r="C99" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <v>0.190679613894608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4414,8 +6782,14 @@
       <c r="C100" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>99</v>
+      </c>
+      <c r="G100">
+        <v>3.0899153804208401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4425,8 +6799,14 @@
       <c r="C101" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>1.8846052811074301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4436,8 +6816,14 @@
       <c r="C102" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>101</v>
+      </c>
+      <c r="G102">
+        <v>1.71669999257881</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4447,8 +6833,14 @@
       <c r="C103" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>102</v>
+      </c>
+      <c r="G103">
+        <v>2.0623530096695801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4458,8 +6850,14 @@
       <c r="C104" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>103</v>
+      </c>
+      <c r="G104">
+        <v>1.7660341914797399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4469,8 +6867,14 @@
       <c r="C105" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>104</v>
+      </c>
+      <c r="G105">
+        <v>1.9371739018802201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4480,8 +6884,14 @@
       <c r="C106" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>105</v>
+      </c>
+      <c r="G106">
+        <v>0.78630377876912905</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4491,8 +6901,14 @@
       <c r="C107" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>106</v>
+      </c>
+      <c r="G107">
+        <v>0.92979901019008904</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4502,8 +6918,14 @@
       <c r="C108" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>107</v>
+      </c>
+      <c r="G108">
+        <v>2.9594910508844898</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4513,8 +6935,14 @@
       <c r="C109" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>108</v>
+      </c>
+      <c r="G109">
+        <v>2.7519952129881502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4524,8 +6952,14 @@
       <c r="C110" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>109</v>
+      </c>
+      <c r="G110">
+        <v>2.7450378746775201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4535,8 +6969,14 @@
       <c r="C111" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>110</v>
+      </c>
+      <c r="G111">
+        <v>2.9126312963140002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4546,8 +6986,14 @@
       <c r="C112" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>111</v>
+      </c>
+      <c r="G112">
+        <v>3.0483025247065001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4557,8 +7003,14 @@
       <c r="C113" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>112</v>
+      </c>
+      <c r="G113">
+        <v>2.8990397171789999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4568,8 +7020,14 @@
       <c r="C114" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>113</v>
+      </c>
+      <c r="G114">
+        <v>1.27381030240559</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4579,8 +7037,14 @@
       <c r="C115" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>114</v>
+      </c>
+      <c r="G115">
+        <v>2.71686312248552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4590,8 +7054,14 @@
       <c r="C116" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>115</v>
+      </c>
+      <c r="G116">
+        <v>0.86434354387503798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4601,8 +7071,14 @@
       <c r="C117" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>116</v>
+      </c>
+      <c r="G117">
+        <v>2.82150591043114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4612,8 +7088,14 @@
       <c r="C118" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>117</v>
+      </c>
+      <c r="G118">
+        <v>0.31066827212458498</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4623,8 +7105,14 @@
       <c r="C119" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>118</v>
+      </c>
+      <c r="G119">
+        <v>2.5560535509808902</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4634,8 +7122,14 @@
       <c r="C120" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>119</v>
+      </c>
+      <c r="G120">
+        <v>0.99524284204013402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4645,8 +7139,14 @@
       <c r="C121" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>120</v>
+      </c>
+      <c r="G121">
+        <v>0.96925523829916405</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4656,8 +7156,14 @@
       <c r="C122" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>121</v>
+      </c>
+      <c r="G122">
+        <v>1.12916520078938</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4667,8 +7173,14 @@
       <c r="C123" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>122</v>
+      </c>
+      <c r="G123">
+        <v>1.08099758619572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4678,8 +7190,14 @@
       <c r="C124" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>123</v>
+      </c>
+      <c r="G124">
+        <v>0.99131768645734397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4689,8 +7207,14 @@
       <c r="C125" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>124</v>
+      </c>
+      <c r="G125">
+        <v>1.7919790647302201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4700,8 +7224,14 @@
       <c r="C126" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>125</v>
+      </c>
+      <c r="G126">
+        <v>0.75134362165423696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4711,8 +7241,14 @@
       <c r="C127" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>126</v>
+      </c>
+      <c r="G127">
+        <v>2.1715420976319502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4722,8 +7258,14 @@
       <c r="C128" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>127</v>
+      </c>
+      <c r="G128">
+        <v>1.14446809998903</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4733,8 +7275,14 @@
       <c r="C129" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>128</v>
+      </c>
+      <c r="G129">
+        <v>2.0341688890493499</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4744,8 +7292,14 @@
       <c r="C130" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>129</v>
+      </c>
+      <c r="G130">
+        <v>1.92444989193692</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4755,8 +7309,14 @@
       <c r="C131" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>130</v>
+      </c>
+      <c r="G131">
+        <v>2.7988160760796998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4766,8 +7326,14 @@
       <c r="C132" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>131</v>
+      </c>
+      <c r="G132">
+        <v>3.0519509403759399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4777,8 +7343,14 @@
       <c r="C133" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>132</v>
+      </c>
+      <c r="G133">
+        <v>3.14027180181137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4788,8 +7360,14 @@
       <c r="C134" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>133</v>
+      </c>
+      <c r="G134">
+        <v>2.3854003371009398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4799,8 +7377,14 @@
       <c r="C135" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>134</v>
+      </c>
+      <c r="G135">
+        <v>3.0645100797597702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4810,8 +7394,14 @@
       <c r="C136" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>135</v>
+      </c>
+      <c r="G136">
+        <v>2.4082121737109801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4821,8 +7411,14 @@
       <c r="C137" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>136</v>
+      </c>
+      <c r="G137">
+        <v>2.0347553590277299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4832,8 +7428,14 @@
       <c r="C138" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>137</v>
+      </c>
+      <c r="G138">
+        <v>1.5068670554916901</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4843,8 +7445,14 @@
       <c r="C139" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>138</v>
+      </c>
+      <c r="G139">
+        <v>2.6606371241361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4854,8 +7462,14 @@
       <c r="C140" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>139</v>
+      </c>
+      <c r="G140">
+        <v>1.7301723936208699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4865,8 +7479,14 @@
       <c r="C141" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>140</v>
+      </c>
+      <c r="G141">
+        <v>3.0302695783489599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4876,8 +7496,14 @@
       <c r="C142" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>141</v>
+      </c>
+      <c r="G142">
+        <v>2.0803827778894699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4887,8 +7513,14 @@
       <c r="C143" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>142</v>
+      </c>
+      <c r="G143">
+        <v>2.0188415546489602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4898,8 +7530,14 @@
       <c r="C144" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>143</v>
+      </c>
+      <c r="G144">
+        <v>1.79145692892751</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4909,8 +7547,14 @@
       <c r="C145" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>144</v>
+      </c>
+      <c r="G145">
+        <v>2.8485813297971898</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4920,8 +7564,14 @@
       <c r="C146" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>145</v>
+      </c>
+      <c r="G146">
+        <v>1.8837776875471799</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4931,8 +7581,14 @@
       <c r="C147" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>146</v>
+      </c>
+      <c r="G147">
+        <v>2.49534320329527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4942,8 +7598,14 @@
       <c r="C148" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>147</v>
+      </c>
+      <c r="G148">
+        <v>2.92731332774283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4953,8 +7615,14 @@
       <c r="C149" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>148</v>
+      </c>
+      <c r="G149">
+        <v>0.39517135195680603</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4964,8 +7632,14 @@
       <c r="C150" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>149</v>
+      </c>
+      <c r="G150">
+        <v>1.73331308545593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4975,8 +7649,14 @@
       <c r="C151" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>150</v>
+      </c>
+      <c r="G151">
+        <v>1.2006037791572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4986,8 +7666,14 @@
       <c r="C152" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>151</v>
+      </c>
+      <c r="G152">
+        <v>2.57226806961773</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4997,8 +7683,14 @@
       <c r="C153" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>152</v>
+      </c>
+      <c r="G153">
+        <v>1.45909448925526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5008,8 +7700,14 @@
       <c r="C154" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>153</v>
+      </c>
+      <c r="G154">
+        <v>1.22568985152627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5019,8 +7717,14 @@
       <c r="C155" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>154</v>
+      </c>
+      <c r="G155">
+        <v>2.4053589602532801</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5030,8 +7734,14 @@
       <c r="C156" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>155</v>
+      </c>
+      <c r="G156">
+        <v>2.3045049384915499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5041,8 +7751,14 @@
       <c r="C157" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>156</v>
+      </c>
+      <c r="G157">
+        <v>2.8871113286789698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5052,8 +7768,14 @@
       <c r="C158" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>157</v>
+      </c>
+      <c r="G158">
+        <v>1.64041974814276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5063,8 +7785,14 @@
       <c r="C159" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>158</v>
+      </c>
+      <c r="G159">
+        <v>0.108827076372796</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5074,8 +7802,14 @@
       <c r="C160" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>159</v>
+      </c>
+      <c r="G160">
+        <v>0.30801905006867702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5085,8 +7819,14 @@
       <c r="C161" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>160</v>
+      </c>
+      <c r="G161">
+        <v>2.8495255916689901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5096,8 +7836,14 @@
       <c r="C162" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>161</v>
+      </c>
+      <c r="G162">
+        <v>1.6705512367420701</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5107,8 +7853,14 @@
       <c r="C163" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>162</v>
+      </c>
+      <c r="G163">
+        <v>2.6483703622011099</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5118,8 +7870,14 @@
       <c r="C164" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>163</v>
+      </c>
+      <c r="G164">
+        <v>2.1173960450534999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5129,8 +7887,14 @@
       <c r="C165" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>164</v>
+      </c>
+      <c r="G165">
+        <v>2.6201788868223699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5140,8 +7904,14 @@
       <c r="C166" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>165</v>
+      </c>
+      <c r="G166">
+        <v>1.4911237472661001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5151,8 +7921,14 @@
       <c r="C167" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>166</v>
+      </c>
+      <c r="G167">
+        <v>2.4917971105353698</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5162,8 +7938,14 @@
       <c r="C168" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>167</v>
+      </c>
+      <c r="G168">
+        <v>2.4193355984544298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5173,8 +7955,14 @@
       <c r="C169" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>168</v>
+      </c>
+      <c r="G169">
+        <v>3.35140148299593</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5184,8 +7972,14 @@
       <c r="C170" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>169</v>
+      </c>
+      <c r="G170">
+        <v>3.20498720786544</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5195,8 +7989,14 @@
       <c r="C171" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>170</v>
+      </c>
+      <c r="G171">
+        <v>1.7176753652008301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5206,8 +8006,14 @@
       <c r="C172" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>171</v>
+      </c>
+      <c r="G172">
+        <v>2.3548908862872402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5217,8 +8023,14 @@
       <c r="C173" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>172</v>
+      </c>
+      <c r="G173">
+        <v>3.3068483206805102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5228,8 +8040,14 @@
       <c r="C174" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>173</v>
+      </c>
+      <c r="G174">
+        <v>3.4381561972993699</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5239,8 +8057,14 @@
       <c r="C175" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>174</v>
+      </c>
+      <c r="G175">
+        <v>2.41290482611827</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5250,8 +8074,14 @@
       <c r="C176" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>175</v>
+      </c>
+      <c r="G176">
+        <v>3.0792923978207298</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5261,8 +8091,14 @@
       <c r="C177" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>176</v>
+      </c>
+      <c r="G177">
+        <v>2.0251438926096101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5272,8 +8108,14 @@
       <c r="C178" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>177</v>
+      </c>
+      <c r="G178">
+        <v>2.4147964372049602</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5283,8 +8125,14 @@
       <c r="C179" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>178</v>
+      </c>
+      <c r="G179">
+        <v>1.8469755616518</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5294,8 +8142,14 @@
       <c r="C180" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>179</v>
+      </c>
+      <c r="G180">
+        <v>2.8680703513418799</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5305,8 +8159,14 @@
       <c r="C181" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>180</v>
+      </c>
+      <c r="G181">
+        <v>2.57525656753795</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5316,8 +8176,14 @@
       <c r="C182" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>181</v>
+      </c>
+      <c r="G182">
+        <v>2.8737677124027599</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5327,8 +8193,14 @@
       <c r="C183" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>182</v>
+      </c>
+      <c r="G183">
+        <v>2.44662489703799</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -5338,8 +8210,14 @@
       <c r="C184" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>183</v>
+      </c>
+      <c r="G184">
+        <v>3.5483275814523401</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -5349,8 +8227,14 @@
       <c r="C185" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>184</v>
+      </c>
+      <c r="G185">
+        <v>3.247329443286</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -5360,8 +8244,14 @@
       <c r="C186" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>185</v>
+      </c>
+      <c r="G186">
+        <v>3.2908702794015499</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -5371,8 +8261,14 @@
       <c r="C187" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>186</v>
+      </c>
+      <c r="G187">
+        <v>1.9764867535205599</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5382,8 +8278,14 @@
       <c r="C188" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>187</v>
+      </c>
+      <c r="G188">
+        <v>2.3066130545486101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5393,8 +8295,14 @@
       <c r="C189" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>188</v>
+      </c>
+      <c r="G189">
+        <v>2.8366502663367501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5404,8 +8312,14 @@
       <c r="C190" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>189</v>
+      </c>
+      <c r="G190">
+        <v>1.6584441565058701</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5415,8 +8329,14 @@
       <c r="C191" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>190</v>
+      </c>
+      <c r="G191">
+        <v>1.71567797336096</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5426,8 +8346,14 @@
       <c r="C192" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>191</v>
+      </c>
+      <c r="G192">
+        <v>3.1079874809223398</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5437,8 +8363,14 @@
       <c r="C193" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>192</v>
+      </c>
+      <c r="G193">
+        <v>3.5850434319386499</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5448,8 +8380,14 @@
       <c r="C194" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>193</v>
+      </c>
+      <c r="G194">
+        <v>2.6173551820964098</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5459,8 +8397,14 @@
       <c r="C195" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>194</v>
+      </c>
+      <c r="G195">
+        <v>2.3589662090749002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5470,8 +8414,14 @@
       <c r="C196" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>195</v>
+      </c>
+      <c r="G196">
+        <v>0.67536342767207702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5481,8 +8431,14 @@
       <c r="C197" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>196</v>
+      </c>
+      <c r="G197">
+        <v>2.9113120381789499</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5492,8 +8448,14 @@
       <c r="C198" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>197</v>
+      </c>
+      <c r="G198">
+        <v>1.9031716285520399</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5503,8 +8465,14 @@
       <c r="C199" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>198</v>
+      </c>
+      <c r="G199">
+        <v>3.3024648257626898</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5514,8 +8482,14 @@
       <c r="C200" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>199</v>
+      </c>
+      <c r="G200">
+        <v>2.72085204759696</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5525,8 +8499,14 @@
       <c r="C201" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>200</v>
+      </c>
+      <c r="G201">
+        <v>3.3700233229224899</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5536,8 +8516,14 @@
       <c r="C202" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>201</v>
+      </c>
+      <c r="G202">
+        <v>3.2972334635047802</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5547,8 +8533,14 @@
       <c r="C203" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>202</v>
+      </c>
+      <c r="G203">
+        <v>3.4583378423580302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5558,8 +8550,14 @@
       <c r="C204" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>203</v>
+      </c>
+      <c r="G204">
+        <v>2.2584125386526601</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5569,8 +8567,14 @@
       <c r="C205" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>204</v>
+      </c>
+      <c r="G205">
+        <v>2.58690206823597</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5580,8 +8584,14 @@
       <c r="C206" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>205</v>
+      </c>
+      <c r="G206">
+        <v>3.2308970875563801</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5591,8 +8601,14 @@
       <c r="C207" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>206</v>
+      </c>
+      <c r="G207">
+        <v>3.2863283069217699</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5602,8 +8618,14 @@
       <c r="C208" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>207</v>
+      </c>
+      <c r="G208">
+        <v>3.0184007321276201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5613,8 +8635,14 @@
       <c r="C209" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>208</v>
+      </c>
+      <c r="G209">
+        <v>2.1867153088918099</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5624,8 +8652,14 @@
       <c r="C210" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>209</v>
+      </c>
+      <c r="G210">
+        <v>2.9924505351442701</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5635,8 +8669,14 @@
       <c r="C211" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>210</v>
+      </c>
+      <c r="G211">
+        <v>3.5406070529059899</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5646,8 +8686,14 @@
       <c r="C212" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>211</v>
+      </c>
+      <c r="G212">
+        <v>1.06059622815513</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5657,8 +8703,14 @@
       <c r="C213" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>212</v>
+      </c>
+      <c r="G213">
+        <v>1.6488251360836099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5668,8 +8720,14 @@
       <c r="C214" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>213</v>
+      </c>
+      <c r="G214">
+        <v>2.4576183525330699</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5679,8 +8737,14 @@
       <c r="C215" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>214</v>
+      </c>
+      <c r="G215">
+        <v>2.8700104447964598</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5690,8 +8754,14 @@
       <c r="C216" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>215</v>
+      </c>
+      <c r="G216">
+        <v>2.1657346128674302</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5701,8 +8771,14 @@
       <c r="C217" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>216</v>
+      </c>
+      <c r="G217">
+        <v>2.1715141101558002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5712,8 +8788,14 @@
       <c r="C218" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>217</v>
+      </c>
+      <c r="G218">
+        <v>0.929025957090166</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5723,8 +8805,14 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>218</v>
+      </c>
+      <c r="G219">
+        <v>1.4976481548964999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5734,8 +8822,14 @@
       <c r="C220" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>219</v>
+      </c>
+      <c r="G220">
+        <v>2.15503352125417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5745,8 +8839,14 @@
       <c r="C221" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>220</v>
+      </c>
+      <c r="G221">
+        <v>2.2197664288166701</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5756,8 +8856,14 @@
       <c r="C222" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>221</v>
+      </c>
+      <c r="G222">
+        <v>3.1354049935552402</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5767,8 +8873,14 @@
       <c r="C223" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>222</v>
+      </c>
+      <c r="G223">
+        <v>2.3780584961350102</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5778,8 +8890,14 @@
       <c r="C224" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>223</v>
+      </c>
+      <c r="G224">
+        <v>3.21874552625354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5789,8 +8907,14 @@
       <c r="C225" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>224</v>
+      </c>
+      <c r="G225">
+        <v>3.19435020748592</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5800,8 +8924,14 @@
       <c r="C226" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>225</v>
+      </c>
+      <c r="G226">
+        <v>2.7846124881900298</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5811,8 +8941,14 @@
       <c r="C227" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>226</v>
+      </c>
+      <c r="G227">
+        <v>3.73844389311961</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5822,8 +8958,14 @@
       <c r="C228" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>227</v>
+      </c>
+      <c r="G228">
+        <v>2.6402860069801601</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5833,8 +8975,14 @@
       <c r="C229" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>228</v>
+      </c>
+      <c r="G229">
+        <v>2.3613363327453101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5844,8 +8992,14 @@
       <c r="C230" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>229</v>
+      </c>
+      <c r="G230">
+        <v>0.197674536721307</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5855,8 +9009,14 @@
       <c r="C231" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>230</v>
+      </c>
+      <c r="G231">
+        <v>2.6629660754766298</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5866,8 +9026,14 @@
       <c r="C232" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>231</v>
+      </c>
+      <c r="G232">
+        <v>2.2603548201658099</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5877,8 +9043,14 @@
       <c r="C233" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>232</v>
+      </c>
+      <c r="G233">
+        <v>1.0515642101349301</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5888,8 +9060,14 @@
       <c r="C234" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>233</v>
+      </c>
+      <c r="G234">
+        <v>2.2863335000217302</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5899,8 +9077,14 @@
       <c r="C235" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>234</v>
+      </c>
+      <c r="G235">
+        <v>3.6757536657250802</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5910,8 +9094,14 @@
       <c r="C236" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>235</v>
+      </c>
+      <c r="G236">
+        <v>2.3763762372762001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5921,8 +9111,14 @@
       <c r="C237" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>236</v>
+      </c>
+      <c r="G237">
+        <v>0.955475119285776</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5932,8 +9128,14 @@
       <c r="C238" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>237</v>
+      </c>
+      <c r="G238">
+        <v>2.2984908696148798</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5943,8 +9145,14 @@
       <c r="C239" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>238</v>
+      </c>
+      <c r="G239">
+        <v>1.59171981976891</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5954,8 +9162,14 @@
       <c r="C240" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>239</v>
+      </c>
+      <c r="G240">
+        <v>2.61581841511155</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5965,8 +9179,14 @@
       <c r="C241" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>240</v>
+      </c>
+      <c r="G241">
+        <v>2.2705049440168299</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5976,8 +9196,14 @@
       <c r="C242" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>241</v>
+      </c>
+      <c r="G242">
+        <v>0.83168312045392101</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5987,8 +9213,14 @@
       <c r="C243" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>242</v>
+      </c>
+      <c r="G243">
+        <v>1.60245262341759</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5998,8 +9230,14 @@
       <c r="C244" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>243</v>
+      </c>
+      <c r="G244">
+        <v>1.3774612246936599</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6009,8 +9247,14 @@
       <c r="C245" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>244</v>
+      </c>
+      <c r="G245">
+        <v>3.1446901484267902</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6020,8 +9264,14 @@
       <c r="C246" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>245</v>
+      </c>
+      <c r="G246">
+        <v>1.17536447182923</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6031,8 +9281,14 @@
       <c r="C247" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>246</v>
+      </c>
+      <c r="G247">
+        <v>0.96482846351812002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6042,8 +9298,14 @@
       <c r="C248" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>247</v>
+      </c>
+      <c r="G248">
+        <v>2.30677863724656</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6053,8 +9315,14 @@
       <c r="C249" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>248</v>
+      </c>
+      <c r="G249">
+        <v>2.8859019045859098</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6064,8 +9332,14 @@
       <c r="C250" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>249</v>
+      </c>
+      <c r="G250">
+        <v>1.8961735895677101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6075,8 +9349,14 @@
       <c r="C251" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>250</v>
+      </c>
+      <c r="G251">
+        <v>3.3937674264992701</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6086,8 +9366,14 @@
       <c r="C252" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>251</v>
+      </c>
+      <c r="G252">
+        <v>1.84687835077747</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6097,8 +9383,14 @@
       <c r="C253" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>252</v>
+      </c>
+      <c r="G253">
+        <v>3.1961441612214401</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6108,8 +9400,14 @@
       <c r="C254" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>253</v>
+      </c>
+      <c r="G254">
+        <v>1.7939650542038099</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6119,8 +9417,14 @@
       <c r="C255" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>254</v>
+      </c>
+      <c r="G255">
+        <v>1.98045857639525</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6130,8 +9434,14 @@
       <c r="C256" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>255</v>
+      </c>
+      <c r="G256">
+        <v>3.2244922372396001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6141,8 +9451,14 @@
       <c r="C257" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>256</v>
+      </c>
+      <c r="G257">
+        <v>2.01409847243526</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6152,8 +9468,14 @@
       <c r="C258" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>257</v>
+      </c>
+      <c r="G258">
+        <v>3.5561772059198802</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6163,8 +9485,14 @@
       <c r="C259" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>258</v>
+      </c>
+      <c r="G259">
+        <v>2.45320242137017</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6174,8 +9502,14 @@
       <c r="C260" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>259</v>
+      </c>
+      <c r="G260">
+        <v>3.14873103958652</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6185,8 +9519,14 @@
       <c r="C261" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>260</v>
+      </c>
+      <c r="G261">
+        <v>2.9131030779055598</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6196,8 +9536,14 @@
       <c r="C262" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>261</v>
+      </c>
+      <c r="G262">
+        <v>3.22089900091005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6207,8 +9553,14 @@
       <c r="C263" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>262</v>
+      </c>
+      <c r="G263">
+        <v>2.9800004258261601</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6218,8 +9570,14 @@
       <c r="C264" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>263</v>
+      </c>
+      <c r="G264">
+        <v>2.48109658043788</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6229,8 +9587,14 @@
       <c r="C265" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>264</v>
+      </c>
+      <c r="G265">
+        <v>3.4736362090961599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6240,8 +9604,14 @@
       <c r="C266" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>265</v>
+      </c>
+      <c r="G266">
+        <v>1.94846099613186</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6251,8 +9621,14 @@
       <c r="C267" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>266</v>
+      </c>
+      <c r="G267">
+        <v>3.2791541735098302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6262,8 +9638,14 @@
       <c r="C268" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>267</v>
+      </c>
+      <c r="G268">
+        <v>2.61921049192016</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6273,8 +9655,14 @@
       <c r="C269" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>268</v>
+      </c>
+      <c r="G269">
+        <v>2.0116670624444999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6284,8 +9672,14 @@
       <c r="C270" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>269</v>
+      </c>
+      <c r="G270">
+        <v>1.8378732584827899</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6295,8 +9689,14 @@
       <c r="C271" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>270</v>
+      </c>
+      <c r="G271">
+        <v>1.3878550217361501</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6306,8 +9706,14 @@
       <c r="C272" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>271</v>
+      </c>
+      <c r="G272">
+        <v>2.2188097837298901</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6317,8 +9723,14 @@
       <c r="C273" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>272</v>
+      </c>
+      <c r="G273">
+        <v>1.5562875737973301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6328,8 +9740,14 @@
       <c r="C274" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>273</v>
+      </c>
+      <c r="G274">
+        <v>2.0229517598572802</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6339,8 +9757,14 @@
       <c r="C275" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>274</v>
+      </c>
+      <c r="G275">
+        <v>2.0719560901226299</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6350,8 +9774,14 @@
       <c r="C276" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>275</v>
+      </c>
+      <c r="G276">
+        <v>2.5013714437738099</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6361,8 +9791,14 @@
       <c r="C277" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>276</v>
+      </c>
+      <c r="G277">
+        <v>1.7854116983381001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6372,8 +9808,14 @@
       <c r="C278" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>277</v>
+      </c>
+      <c r="G278">
+        <v>2.1139038731672302</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6383,8 +9825,14 @@
       <c r="C279" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>278</v>
+      </c>
+      <c r="G279">
+        <v>2.6204340663501</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6394,8 +9842,14 @@
       <c r="C280" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>279</v>
+      </c>
+      <c r="G280">
+        <v>2.85223056855396</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6405,8 +9859,14 @@
       <c r="C281" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>280</v>
+      </c>
+      <c r="G281">
+        <v>2.9247193556411402</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6416,8 +9876,14 @@
       <c r="C282" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>281</v>
+      </c>
+      <c r="G282">
+        <v>0.40115648440031798</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6427,8 +9893,14 @@
       <c r="C283" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>282</v>
+      </c>
+      <c r="G283">
+        <v>3.2134624333264399</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6438,8 +9910,14 @@
       <c r="C284" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>283</v>
+      </c>
+      <c r="G284">
+        <v>5.8996677733556102E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6449,8 +9927,14 @@
       <c r="C285" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>284</v>
+      </c>
+      <c r="G285">
+        <v>2.5129075235050702</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6460,8 +9944,14 @@
       <c r="C286" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>285</v>
+      </c>
+      <c r="G286">
+        <v>2.5774020551262899</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6471,8 +9961,14 @@
       <c r="C287" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>286</v>
+      </c>
+      <c r="G287">
+        <v>1.1788905486806101</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6482,8 +9978,14 @@
       <c r="C288" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>287</v>
+      </c>
+      <c r="G288">
+        <v>3.0355846656815002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6493,8 +9995,14 @@
       <c r="C289" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>288</v>
+      </c>
+      <c r="G289">
+        <v>3.4957089231724497E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6504,8 +10012,14 @@
       <c r="C290" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>289</v>
+      </c>
+      <c r="G290">
+        <v>1.4587854771801301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6515,8 +10029,14 @@
       <c r="C291" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>290</v>
+      </c>
+      <c r="G291">
+        <v>3.4096030157499002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6526,8 +10046,14 @@
       <c r="C292" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>291</v>
+      </c>
+      <c r="G292">
+        <v>2.53195350381485</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6537,8 +10063,14 @@
       <c r="C293" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>292</v>
+      </c>
+      <c r="G293">
+        <v>1.6705940177747201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6548,8 +10080,14 @@
       <c r="C294" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>293</v>
+      </c>
+      <c r="G294">
+        <v>2.2582508698785202</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6559,8 +10097,14 @@
       <c r="C295" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>294</v>
+      </c>
+      <c r="G295">
+        <v>3.3423322893504799</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6570,8 +10114,14 @@
       <c r="C296" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>295</v>
+      </c>
+      <c r="G296">
+        <v>3.5176982725101702</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6581,8 +10131,14 @@
       <c r="C297" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>296</v>
+      </c>
+      <c r="G297">
+        <v>1.1410126180612901</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6592,8 +10148,14 @@
       <c r="C298" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>297</v>
+      </c>
+      <c r="G298">
+        <v>2.7945699030993598</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6603,8 +10165,14 @@
       <c r="C299" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>298</v>
+      </c>
+      <c r="G299">
+        <v>3.2634780959013501</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6614,8 +10182,14 @@
       <c r="C300" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>299</v>
+      </c>
+      <c r="G300">
+        <v>2.5039224919947101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6625,8 +10199,14 @@
       <c r="C301" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>300</v>
+      </c>
+      <c r="G301">
+        <v>0.93504826279170306</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6636,8 +10216,14 @@
       <c r="C302" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>301</v>
+      </c>
+      <c r="G302">
+        <v>2.4807369065106202</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6647,8 +10233,14 @@
       <c r="C303" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>302</v>
+      </c>
+      <c r="G303">
+        <v>2.6884015850162002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6658,8 +10250,14 @@
       <c r="C304" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>303</v>
+      </c>
+      <c r="G304">
+        <v>1.4289338819149799</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6669,8 +10267,14 @@
       <c r="C305" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>304</v>
+      </c>
+      <c r="G305">
+        <v>2.30651616760239</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6680,8 +10284,14 @@
       <c r="C306" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>305</v>
+      </c>
+      <c r="G306">
+        <v>0.27939186211525702</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6691,8 +10301,14 @@
       <c r="C307" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>306</v>
+      </c>
+      <c r="G307">
+        <v>1.8486387828329101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6702,8 +10318,14 @@
       <c r="C308" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>307</v>
+      </c>
+      <c r="G308">
+        <v>0.121551215394732</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6713,8 +10335,14 @@
       <c r="C309" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>308</v>
+      </c>
+      <c r="G309">
+        <v>2.07984095556909</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6724,8 +10352,14 @@
       <c r="C310" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>309</v>
+      </c>
+      <c r="G310">
+        <v>3.0797800411684202</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6735,8 +10369,14 @@
       <c r="C311" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>310</v>
+      </c>
+      <c r="G311">
+        <v>2.53769243129689</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6746,8 +10386,14 @@
       <c r="C312" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>311</v>
+      </c>
+      <c r="G312">
+        <v>2.8703775506288398</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6757,8 +10403,14 @@
       <c r="C313" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>312</v>
+      </c>
+      <c r="G313">
+        <v>0.93116904919090304</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6768,8 +10420,14 @@
       <c r="C314" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>313</v>
+      </c>
+      <c r="G314">
+        <v>3.6972332492724602</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6779,8 +10437,14 @@
       <c r="C315" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>314</v>
+      </c>
+      <c r="G315">
+        <v>2.3029577872961902</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6790,8 +10454,14 @@
       <c r="C316" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>315</v>
+      </c>
+      <c r="G316">
+        <v>2.9699636960106002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6801,8 +10471,14 @@
       <c r="C317" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>316</v>
+      </c>
+      <c r="G317">
+        <v>2.4011695436708398</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6812,8 +10488,14 @@
       <c r="C318" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>317</v>
+      </c>
+      <c r="G318">
+        <v>1.45663752577859</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6823,8 +10505,14 @@
       <c r="C319" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>318</v>
+      </c>
+      <c r="G319">
+        <v>2.7344230635617599</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6834,8 +10522,14 @@
       <c r="C320" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>319</v>
+      </c>
+      <c r="G320">
+        <v>3.3716101476208098</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6845,8 +10539,14 @@
       <c r="C321" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>320</v>
+      </c>
+      <c r="G321">
+        <v>1.3867281353365899</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6856,8 +10556,14 @@
       <c r="C322" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>321</v>
+      </c>
+      <c r="G322">
+        <v>2.4441553592712402</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6867,8 +10573,14 @@
       <c r="C323" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>322</v>
+      </c>
+      <c r="G323">
+        <v>3.6316506996117002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -6878,8 +10590,14 @@
       <c r="C324" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>323</v>
+      </c>
+      <c r="G324">
+        <v>1.84113466522415</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -6889,8 +10607,14 @@
       <c r="C325" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>324</v>
+      </c>
+      <c r="G325">
+        <v>2.4799892592944</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -6900,8 +10624,14 @@
       <c r="C326" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>325</v>
+      </c>
+      <c r="G326">
+        <v>2.81648502554201</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -6911,8 +10641,14 @@
       <c r="C327" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>326</v>
+      </c>
+      <c r="G327">
+        <v>1.82333445724179</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -6922,8 +10658,14 @@
       <c r="C328" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>327</v>
+      </c>
+      <c r="G328">
+        <v>2.3774222940008598</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -6933,8 +10675,14 @@
       <c r="C329" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>328</v>
+      </c>
+      <c r="G329">
+        <v>2.2734680083207901</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -6944,8 +10692,14 @@
       <c r="C330" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>329</v>
+      </c>
+      <c r="G330">
+        <v>0.58364149895314199</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -6955,8 +10709,14 @@
       <c r="C331" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>330</v>
+      </c>
+      <c r="G331">
+        <v>3.1997581910700501</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -6966,8 +10726,14 @@
       <c r="C332" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>331</v>
+      </c>
+      <c r="G332">
+        <v>2.4052478872982199</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -6977,8 +10743,14 @@
       <c r="C333" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>332</v>
+      </c>
+      <c r="G333">
+        <v>2.1581415915322402</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -6988,8 +10760,14 @@
       <c r="C334" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>333</v>
+      </c>
+      <c r="G334">
+        <v>1.03322976635254</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -6999,8 +10777,14 @@
       <c r="C335" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>334</v>
+      </c>
+      <c r="G335">
+        <v>3.3775539885468202</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7010,8 +10794,14 @@
       <c r="C336" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>335</v>
+      </c>
+      <c r="G336">
+        <v>1.37647498109209</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7021,8 +10811,14 @@
       <c r="C337" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>336</v>
+      </c>
+      <c r="G337">
+        <v>2.2280426253609198</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7032,8 +10828,14 @@
       <c r="C338" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>337</v>
+      </c>
+      <c r="G338">
+        <v>2.2564426929254999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7043,8 +10845,14 @@
       <c r="C339" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>338</v>
+      </c>
+      <c r="G339">
+        <v>2.92144855836198</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7054,8 +10862,14 @@
       <c r="C340" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>339</v>
+      </c>
+      <c r="G340">
+        <v>1.91843429523026</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7065,8 +10879,14 @@
       <c r="C341" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>340</v>
+      </c>
+      <c r="G341">
+        <v>1.70612672225119</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7076,8 +10896,14 @@
       <c r="C342" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>341</v>
+      </c>
+      <c r="G342">
+        <v>3.1825890837704902</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7087,8 +10913,14 @@
       <c r="C343" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>342</v>
+      </c>
+      <c r="G343">
+        <v>2.6059655816883001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7098,8 +10930,14 @@
       <c r="C344" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>343</v>
+      </c>
+      <c r="G344">
+        <v>1.10296717170422</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7109,8 +10947,14 @@
       <c r="C345" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>344</v>
+      </c>
+      <c r="G345">
+        <v>3.1190126435456902</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7120,8 +10964,14 @@
       <c r="C346" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>345</v>
+      </c>
+      <c r="G346">
+        <v>2.3199323793484798</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7131,8 +10981,14 @@
       <c r="C347" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>346</v>
+      </c>
+      <c r="G347">
+        <v>1.78298379343567</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7142,8 +10998,14 @@
       <c r="C348" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>347</v>
+      </c>
+      <c r="G348">
+        <v>1.3800576203416699</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7153,8 +11015,14 @@
       <c r="C349" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>348</v>
+      </c>
+      <c r="G349">
+        <v>1.1362548113801201</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7164,8 +11032,14 @@
       <c r="C350" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>349</v>
+      </c>
+      <c r="G350">
+        <v>2.3212824912998098</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7175,8 +11049,14 @@
       <c r="C351" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>350</v>
+      </c>
+      <c r="G351">
+        <v>1.92183972457207</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7186,8 +11066,14 @@
       <c r="C352" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>351</v>
+      </c>
+      <c r="G352">
+        <v>1.04195429782539</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7197,8 +11083,14 @@
       <c r="C353" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>352</v>
+      </c>
+      <c r="G353">
+        <v>1.1250385608351201</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7208,8 +11100,14 @@
       <c r="C354" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>353</v>
+      </c>
+      <c r="G354">
+        <v>1.60586556729243</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7219,8 +11117,14 @@
       <c r="C355" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>354</v>
+      </c>
+      <c r="G355">
+        <v>2.234668840681</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7230,8 +11134,14 @@
       <c r="C356" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>355</v>
+      </c>
+      <c r="G356">
+        <v>1.05214528836747</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7241,8 +11151,14 @@
       <c r="C357" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>356</v>
+      </c>
+      <c r="G357">
+        <v>1.60461219445842</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7252,8 +11168,14 @@
       <c r="C358" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>357</v>
+      </c>
+      <c r="G358">
+        <v>0.58821279834058204</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -7263,8 +11185,14 @@
       <c r="C359" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>358</v>
+      </c>
+      <c r="G359">
+        <v>2.52915343597489</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -7274,8 +11202,14 @@
       <c r="C360" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>359</v>
+      </c>
+      <c r="G360">
+        <v>1.0666742949858801</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7285,8 +11219,14 @@
       <c r="C361" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>360</v>
+      </c>
+      <c r="G361">
+        <v>2.99577224327609</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7296,8 +11236,14 @@
       <c r="C362" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>361</v>
+      </c>
+      <c r="G362">
+        <v>2.36209079900194</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7307,8 +11253,14 @@
       <c r="C363" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>362</v>
+      </c>
+      <c r="G363">
+        <v>2.0478855905323599</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7318,8 +11270,14 @@
       <c r="C364" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>363</v>
+      </c>
+      <c r="G364">
+        <v>0.85988153889706398</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7329,8 +11287,14 @@
       <c r="C365" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>364</v>
+      </c>
+      <c r="G365">
+        <v>1.65524317389475</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7340,8 +11304,14 @@
       <c r="C366" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>365</v>
+      </c>
+      <c r="G366">
+        <v>1.1979528562710899</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7351,8 +11321,14 @@
       <c r="C367" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>366</v>
+      </c>
+      <c r="G367">
+        <v>1.5012331971355899</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7362,8 +11338,14 @@
       <c r="C368" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>367</v>
+      </c>
+      <c r="G368">
+        <v>1.5879005764274301</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7373,8 +11355,14 @@
       <c r="C369" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>368</v>
+      </c>
+      <c r="G369">
+        <v>0.37727811079305301</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7384,8 +11372,14 @@
       <c r="C370" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>369</v>
+      </c>
+      <c r="G370">
+        <v>0.143513206690916</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7395,8 +11389,14 @@
       <c r="C371" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>370</v>
+      </c>
+      <c r="G371">
+        <v>1.86286746208238</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7406,8 +11406,14 @@
       <c r="C372" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>371</v>
+      </c>
+      <c r="G372">
+        <v>1.22597232604416</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7417,8 +11423,14 @@
       <c r="C373" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>372</v>
+      </c>
+      <c r="G373">
+        <v>3.3926847413129102</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7428,8 +11440,14 @@
       <c r="C374" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>373</v>
+      </c>
+      <c r="G374">
+        <v>1.4150457621561701</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7439,8 +11457,14 @@
       <c r="C375" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>374</v>
+      </c>
+      <c r="G375">
+        <v>3.8681462830333202</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7450,8 +11474,14 @@
       <c r="C376" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>375</v>
+      </c>
+      <c r="G376">
+        <v>1.7810634737420199</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7461,8 +11491,14 @@
       <c r="C377" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>376</v>
+      </c>
+      <c r="G377">
+        <v>1.4487801970335701</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7472,8 +11508,14 @@
       <c r="C378" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>377</v>
+      </c>
+      <c r="G378">
+        <v>1.0942531636403099</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7483,8 +11525,14 @@
       <c r="C379" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>378</v>
+      </c>
+      <c r="G379">
+        <v>2.61500995362975</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7494,8 +11542,14 @@
       <c r="C380" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>379</v>
+      </c>
+      <c r="G380">
+        <v>2.398421917826</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7505,8 +11559,14 @@
       <c r="C381" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>380</v>
+      </c>
+      <c r="G381">
+        <v>0.27407418529239702</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7516,8 +11576,14 @@
       <c r="C382" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>381</v>
+      </c>
+      <c r="G382">
+        <v>1.9335600519149001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7527,8 +11593,14 @@
       <c r="C383" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>382</v>
+      </c>
+      <c r="G383">
+        <v>2.2469114351357198</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7538,8 +11610,14 @@
       <c r="C384" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>383</v>
+      </c>
+      <c r="G384">
+        <v>1.1971681478021201</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7549,8 +11627,14 @@
       <c r="C385" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>384</v>
+      </c>
+      <c r="G385">
+        <v>2.26354272442632</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7560,8 +11644,14 @@
       <c r="C386" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <v>385</v>
+      </c>
+      <c r="G386">
+        <v>2.54799738097873</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7571,8 +11661,14 @@
       <c r="C387" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <v>386</v>
+      </c>
+      <c r="G387">
+        <v>2.8263382326720499</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7582,8 +11678,14 @@
       <c r="C388" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>387</v>
+      </c>
+      <c r="G388">
+        <v>0.92959398940999105</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7593,8 +11695,14 @@
       <c r="C389" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>388</v>
+      </c>
+      <c r="G389">
+        <v>2.1338298988393301</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -7604,8 +11712,14 @@
       <c r="C390" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>389</v>
+      </c>
+      <c r="G390">
+        <v>0.22128206775529999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -7615,8 +11729,14 @@
       <c r="C391" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <v>390</v>
+      </c>
+      <c r="G391">
+        <v>2.8453152953537302</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -7626,8 +11746,14 @@
       <c r="C392" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <v>391</v>
+      </c>
+      <c r="G392">
+        <v>1.7308127135656399</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -7637,8 +11763,14 @@
       <c r="C393" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <v>392</v>
+      </c>
+      <c r="G393">
+        <v>0.23423136067577199</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -7648,8 +11780,14 @@
       <c r="C394" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <v>393</v>
+      </c>
+      <c r="G394">
+        <v>2.39604428871584</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -7659,8 +11797,14 @@
       <c r="C395" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <v>394</v>
+      </c>
+      <c r="G395">
+        <v>2.78865912819583</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -7670,8 +11814,14 @@
       <c r="C396" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <v>395</v>
+      </c>
+      <c r="G396">
+        <v>0.93062212909700104</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -7681,8 +11831,14 @@
       <c r="C397" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <v>396</v>
+      </c>
+      <c r="G397">
+        <v>2.6251555001483</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -7692,8 +11848,14 @@
       <c r="C398" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <v>397</v>
+      </c>
+      <c r="G398">
+        <v>2.9508989185257199</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -7703,8 +11865,14 @@
       <c r="C399" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <v>398</v>
+      </c>
+      <c r="G399">
+        <v>3.18311349337344</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -7714,8 +11882,14 @@
       <c r="C400" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <v>399</v>
+      </c>
+      <c r="G400">
+        <v>2.6828702886199798</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -7725,8 +11899,14 @@
       <c r="C401" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>400</v>
+      </c>
+      <c r="G401">
+        <v>0.67757589315504296</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -7736,8 +11916,14 @@
       <c r="C402" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>401</v>
+      </c>
+      <c r="G402">
+        <v>2.2111164361224498</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -7747,8 +11933,14 @@
       <c r="C403" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <v>402</v>
+      </c>
+      <c r="G403">
+        <v>1.14733520560205</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -7758,8 +11950,14 @@
       <c r="C404" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>403</v>
+      </c>
+      <c r="G404">
+        <v>3.2386378353217098</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -7769,8 +11967,14 @@
       <c r="C405" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <v>404</v>
+      </c>
+      <c r="G405">
+        <v>0.75927470491051796</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -7780,8 +11984,14 @@
       <c r="C406" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <v>405</v>
+      </c>
+      <c r="G406">
+        <v>2.2419310220506201</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -7791,8 +12001,14 @@
       <c r="C407" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <v>406</v>
+      </c>
+      <c r="G407">
+        <v>2.77972337311961</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -7802,8 +12018,14 @@
       <c r="C408" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <v>407</v>
+      </c>
+      <c r="G408">
+        <v>3.0370464626240499</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -7813,8 +12035,14 @@
       <c r="C409" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>408</v>
+      </c>
+      <c r="G409">
+        <v>0.26979771970953798</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -7824,8 +12052,14 @@
       <c r="C410" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <v>409</v>
+      </c>
+      <c r="G410">
+        <v>2.0071747960626101</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -7835,8 +12069,14 @@
       <c r="C411" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <v>410</v>
+      </c>
+      <c r="G411">
+        <v>2.3747255383703401</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -7846,8 +12086,14 @@
       <c r="C412" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>411</v>
+      </c>
+      <c r="G412">
+        <v>0.65054848275694599</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -7857,8 +12103,14 @@
       <c r="C413" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <v>412</v>
+      </c>
+      <c r="G413">
+        <v>1.7166552071494701</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -7868,8 +12120,14 @@
       <c r="C414" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <v>413</v>
+      </c>
+      <c r="G414">
+        <v>2.4938781327855102</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -7879,8 +12137,14 @@
       <c r="C415" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <v>414</v>
+      </c>
+      <c r="G415">
+        <v>0.51599538370699805</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -7890,8 +12154,14 @@
       <c r="C416" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <v>415</v>
+      </c>
+      <c r="G416">
+        <v>3.1532116037239502</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -7901,8 +12171,14 @@
       <c r="C417" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <v>416</v>
+      </c>
+      <c r="G417">
+        <v>1.72726444296244</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -7912,8 +12188,14 @@
       <c r="C418" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <v>417</v>
+      </c>
+      <c r="G418">
+        <v>1.0396619055541101</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -7923,8 +12205,14 @@
       <c r="C419" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <v>418</v>
+      </c>
+      <c r="G419">
+        <v>2.4228447030559801</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -7934,8 +12222,14 @@
       <c r="C420" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <v>419</v>
+      </c>
+      <c r="G420">
+        <v>2.4409591248446798</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -7945,8 +12239,14 @@
       <c r="C421" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>420</v>
+      </c>
+      <c r="G421">
+        <v>0.19280353808405301</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -7956,8 +12256,14 @@
       <c r="C422" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <v>421</v>
+      </c>
+      <c r="G422">
+        <v>2.2898454137723898</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -7967,8 +12273,14 @@
       <c r="C423" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <v>422</v>
+      </c>
+      <c r="G423">
+        <v>2.6902361452861401</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -7978,8 +12290,14 @@
       <c r="C424" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <v>423</v>
+      </c>
+      <c r="G424">
+        <v>3.1400636251630498</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -7989,8 +12307,14 @@
       <c r="C425" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <v>424</v>
+      </c>
+      <c r="G425">
+        <v>1.1095826229410699</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8000,8 +12324,14 @@
       <c r="C426" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>425</v>
+      </c>
+      <c r="G426">
+        <v>2.0563794275868399</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -8011,8 +12341,14 @@
       <c r="C427" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <v>426</v>
+      </c>
+      <c r="G427">
+        <v>2.6071861223364201</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -8022,8 +12358,14 @@
       <c r="C428" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <v>427</v>
+      </c>
+      <c r="G428">
+        <v>3.0741534464490301</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -8033,8 +12375,14 @@
       <c r="C429" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <v>428</v>
+      </c>
+      <c r="G429">
+        <v>2.6120236587499499</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -8044,8 +12392,14 @@
       <c r="C430" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>429</v>
+      </c>
+      <c r="G430">
+        <v>0.33341284926572601</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -8055,8 +12409,14 @@
       <c r="C431" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <v>430</v>
+      </c>
+      <c r="G431">
+        <v>3.1498321020729598</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -8066,8 +12426,14 @@
       <c r="C432" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <v>431</v>
+      </c>
+      <c r="G432">
+        <v>3.3570378707878401</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -8077,8 +12443,14 @@
       <c r="C433" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <v>432</v>
+      </c>
+      <c r="G433">
+        <v>2.8815419363532602</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -8088,8 +12460,14 @@
       <c r="C434" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>433</v>
+      </c>
+      <c r="G434">
+        <v>2.1288788513693002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -8099,8 +12477,14 @@
       <c r="C435" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <v>434</v>
+      </c>
+      <c r="G435">
+        <v>3.3293455033123101</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -8110,8 +12494,14 @@
       <c r="C436" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>435</v>
+      </c>
+      <c r="G436">
+        <v>3.28278155837469</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -8121,8 +12511,14 @@
       <c r="C437" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <v>436</v>
+      </c>
+      <c r="G437">
+        <v>2.12781140686505</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -8132,8 +12528,14 @@
       <c r="C438" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <v>437</v>
+      </c>
+      <c r="G438">
+        <v>2.98341708451261</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -8143,8 +12545,14 @@
       <c r="C439" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <v>438</v>
+      </c>
+      <c r="G439">
+        <v>3.5109622738041302</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -8154,8 +12562,14 @@
       <c r="C440" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>439</v>
+      </c>
+      <c r="G440">
+        <v>3.8249433916005802</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -8165,8 +12579,14 @@
       <c r="C441" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <v>440</v>
+      </c>
+      <c r="G441">
+        <v>0.44497735493297402</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -8175,6 +12595,12 @@
       </c>
       <c r="C442" t="s">
         <v>28</v>
+      </c>
+      <c r="F442">
+        <v>441</v>
+      </c>
+      <c r="G442">
+        <v>1.87326169108325</v>
       </c>
     </row>
   </sheetData>
